--- a/Algoritmo_Rota/Planilhas_de_Rota/A_Estrela_Euclidiano/PLN_AEE_81_3.xlsx
+++ b/Algoritmo_Rota/Planilhas_de_Rota/A_Estrela_Euclidiano/PLN_AEE_81_3.xlsx
@@ -466,7 +466,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>1880</v>
+        <v>1648</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,11 +480,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23</t>
+          <t>23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.01092839241027832</v>
+        <v>0.008564472198486328</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>2587</v>
+        <v>2357</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,11 +509,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>48 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 4 -&gt; 74 -&gt; 72 -&gt; 10 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 44 -&gt; 46 -&gt; 47 -&gt; 48</t>
+          <t>48 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 13 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 4 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 44 -&gt; 46 -&gt; 47 -&gt; 48</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.009633541107177734</v>
+        <v>0.008800029754638672</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>2506</v>
+        <v>2395</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.01134443283081055</v>
+        <v>0.008996248245239258</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas_de_Rota/A_Estrela_Euclidiano/PLN_AEE_81_3.xlsx
+++ b/Algoritmo_Rota/Planilhas_de_Rota/A_Estrela_Euclidiano/PLN_AEE_81_3.xlsx
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -119,19 +125,19 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -491,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -517,10 +523,10 @@
         <v>0.002535343170166016</v>
       </c>
       <c r="I2" s="5">
-        <v>0.02630043029785156</v>
+        <v>0.026300430297852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -549,7 +555,7 @@
         <v>0.0112919807434082</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>0</v>
       </c>
